--- a/index.xlsx
+++ b/index.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\renji\Documents\PG\AngularJS\AngularJS_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\renji\Documents\PG\AngularJS\AngularJS_app\git\angularjs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9130570-6B50-4432-9CD6-25C095F90AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50869DC8-7B40-4CF0-BFFD-EED751EEEC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="452">
   <si>
     <t>導入編</t>
     <rPh sb="0" eb="2">
@@ -2624,13 +2624,40 @@
   <si>
     <t>identity.html</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AngularJSでは、JavaScript標準のwindow／document／locationオブジェクト、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setInterval／setTimeoutメソッドを利用してはいけません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>代わりに、AngularJSで拡張された次のサービスを利用してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$window</t>
+  </si>
+  <si>
+    <t>$document</t>
+  </si>
+  <si>
+    <t>$location</t>
+  </si>
+  <si>
+    <t>$interval</t>
+  </si>
+  <si>
+    <t>$timeout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2679,6 +2706,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2700,13 +2736,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2992,10 +3029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B9E438-5770-4970-BBAD-3515EDED5848}">
-  <dimension ref="A1:I384"/>
+  <dimension ref="A1:I392"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M293" sqref="M293"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="M231" sqref="M231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4248,84 +4285,48 @@
       </c>
     </row>
     <row r="218" spans="3:9">
-      <c r="D218" t="s">
+      <c r="D218" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="219" spans="3:9">
+      <c r="D219" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="220" spans="3:9">
+      <c r="D220" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="221" spans="3:9">
+      <c r="E221" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="222" spans="3:9">
+      <c r="E222" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="223" spans="3:9">
+      <c r="E223" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="224" spans="3:9">
+      <c r="E224" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="225" spans="3:9">
+      <c r="E225" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="226" spans="3:9">
+      <c r="D226" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="219" spans="3:9">
-      <c r="E219" t="s">
-        <v>309</v>
-      </c>
-      <c r="G219" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="I219" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="220" spans="3:9">
-      <c r="E220" t="s">
-        <v>309</v>
-      </c>
-      <c r="G220" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="I220" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="221" spans="3:9">
-      <c r="D221" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="222" spans="3:9">
-      <c r="E222" t="s">
-        <v>309</v>
-      </c>
-      <c r="G222" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="I222" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="223" spans="3:9">
-      <c r="E223" t="s">
-        <v>309</v>
-      </c>
-      <c r="G223" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="I223" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="224" spans="3:9">
-      <c r="D224" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="225" spans="3:9">
-      <c r="E225" t="s">
-        <v>309</v>
-      </c>
-      <c r="G225" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="I225" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="226" spans="3:9">
-      <c r="E226" t="s">
-        <v>309</v>
-      </c>
-      <c r="G226" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="I226" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="227" spans="3:9">
@@ -4333,10 +4334,10 @@
         <v>309</v>
       </c>
       <c r="G227" s="5" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="I227" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="228" spans="3:9">
@@ -4344,20 +4345,26 @@
         <v>309</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="I228" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="229" spans="3:9">
-      <c r="C229" s="2" t="s">
-        <v>29</v>
+      <c r="D229" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="230" spans="3:9">
-      <c r="D230" t="s">
-        <v>196</v>
+      <c r="E230" t="s">
+        <v>309</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="I230" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="231" spans="3:9">
@@ -4365,15 +4372,15 @@
         <v>309</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="I231" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="232" spans="3:9">
       <c r="D232" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="233" spans="3:9">
@@ -4381,15 +4388,21 @@
         <v>309</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="I233" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="234" spans="3:9">
-      <c r="D234" t="s">
-        <v>198</v>
+      <c r="E234" t="s">
+        <v>309</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="I234" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="235" spans="3:9">
@@ -4397,47 +4410,47 @@
         <v>309</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I235" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
     </row>
     <row r="236" spans="3:9">
-      <c r="D236" t="s">
-        <v>199</v>
+      <c r="E236" t="s">
+        <v>309</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I236" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="237" spans="3:9">
-      <c r="E237" t="s">
-        <v>309</v>
-      </c>
-      <c r="G237" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I237" t="s">
-        <v>377</v>
+      <c r="C237" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="238" spans="3:9">
-      <c r="C238" s="2" t="s">
-        <v>31</v>
+      <c r="D238" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="239" spans="3:9">
-      <c r="D239" t="s">
-        <v>200</v>
+      <c r="E239" t="s">
+        <v>309</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I239" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="240" spans="3:9">
-      <c r="E240" t="s">
-        <v>309</v>
-      </c>
-      <c r="G240" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="I240" t="s">
-        <v>379</v>
+      <c r="D240" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="241" spans="3:9">
@@ -4445,58 +4458,52 @@
         <v>309</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="I241" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="242" spans="3:9">
-      <c r="E242" t="s">
-        <v>309</v>
-      </c>
-      <c r="G242" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I242" t="s">
-        <v>383</v>
+      <c r="D242" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="243" spans="3:9">
-      <c r="D243" t="s">
-        <v>201</v>
+      <c r="E243" t="s">
+        <v>309</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="I243" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="244" spans="3:9">
-      <c r="E244" t="s">
-        <v>309</v>
-      </c>
-      <c r="G244" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="I244" t="s">
-        <v>385</v>
+      <c r="D244" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="245" spans="3:9">
-      <c r="D245" t="s">
-        <v>202</v>
+      <c r="E245" t="s">
+        <v>309</v>
+      </c>
+      <c r="G245" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I245" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="246" spans="3:9">
-      <c r="E246" t="s">
-        <v>309</v>
-      </c>
-      <c r="G246" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I246" t="s">
-        <v>387</v>
+      <c r="C246" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="247" spans="3:9">
       <c r="D247" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="248" spans="3:9">
@@ -4504,10 +4511,10 @@
         <v>309</v>
       </c>
       <c r="G248" s="5" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="I248" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="249" spans="3:9">
@@ -4515,10 +4522,10 @@
         <v>309</v>
       </c>
       <c r="G249" s="5" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="I249" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="250" spans="3:9">
@@ -4526,21 +4533,15 @@
         <v>309</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="I250" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="251" spans="3:9">
-      <c r="E251" t="s">
-        <v>309</v>
-      </c>
-      <c r="G251" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="I251" t="s">
-        <v>394</v>
+      <c r="D251" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="252" spans="3:9">
@@ -4548,15 +4549,15 @@
         <v>309</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="I252" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="253" spans="3:9">
       <c r="D253" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="254" spans="3:9">
@@ -4564,171 +4565,171 @@
         <v>309</v>
       </c>
       <c r="G254" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I254" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="255" spans="3:9">
+      <c r="D255" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="256" spans="3:9">
+      <c r="E256" t="s">
+        <v>309</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I256" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="257" spans="3:9">
+      <c r="E257" t="s">
+        <v>309</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="I257" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="258" spans="3:9">
+      <c r="E258" t="s">
+        <v>309</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="I258" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="259" spans="3:9">
+      <c r="E259" t="s">
+        <v>309</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="I259" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="260" spans="3:9">
+      <c r="E260" t="s">
+        <v>309</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I260" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="261" spans="3:9">
+      <c r="D261" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="262" spans="3:9">
+      <c r="E262" t="s">
+        <v>309</v>
+      </c>
+      <c r="G262" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="I254" t="s">
+      <c r="I262" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="255" spans="3:9">
-      <c r="E255" t="s">
-        <v>309</v>
-      </c>
-      <c r="G255" s="5" t="s">
+    <row r="263" spans="3:9">
+      <c r="E263" t="s">
+        <v>309</v>
+      </c>
+      <c r="G263" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="I255" t="s">
+      <c r="I263" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="256" spans="3:9">
-      <c r="C256" s="2" t="s">
+    <row r="264" spans="3:9">
+      <c r="C264" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="4:9">
-      <c r="D257" t="s">
+    <row r="265" spans="3:9">
+      <c r="D265" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="258" spans="4:9">
-      <c r="E258" t="s">
-        <v>309</v>
-      </c>
-      <c r="G258" s="5" t="s">
+    <row r="266" spans="3:9">
+      <c r="E266" t="s">
+        <v>309</v>
+      </c>
+      <c r="G266" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="I258" t="s">
+      <c r="I266" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="259" spans="4:9">
-      <c r="D259" t="s">
+    <row r="267" spans="3:9">
+      <c r="D267" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="260" spans="4:9">
-      <c r="E260" t="s">
-        <v>309</v>
-      </c>
-      <c r="G260" s="5" t="s">
+    <row r="268" spans="3:9">
+      <c r="E268" t="s">
+        <v>309</v>
+      </c>
+      <c r="G268" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="I260" t="s">
+      <c r="I268" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="261" spans="4:9">
-      <c r="D261" t="s">
+    <row r="269" spans="3:9">
+      <c r="D269" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="262" spans="4:9">
-      <c r="E262" t="s">
-        <v>309</v>
-      </c>
-      <c r="G262" s="5" t="s">
+    <row r="270" spans="3:9">
+      <c r="E270" t="s">
+        <v>309</v>
+      </c>
+      <c r="G270" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="I262" t="s">
+      <c r="I270" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="263" spans="4:9">
-      <c r="D263" t="s">
+    <row r="271" spans="3:9">
+      <c r="D271" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="264" spans="4:9">
-      <c r="E264" t="s">
-        <v>309</v>
-      </c>
-      <c r="G264" s="5" t="s">
+    <row r="272" spans="3:9">
+      <c r="E272" t="s">
+        <v>309</v>
+      </c>
+      <c r="G272" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="I264" t="s">
+      <c r="I272" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="265" spans="4:9">
-      <c r="D265" t="s">
+    <row r="273" spans="4:9">
+      <c r="D273" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="266" spans="4:9">
-      <c r="E266" t="s">
-        <v>309</v>
-      </c>
-      <c r="G266" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I266" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="267" spans="4:9">
-      <c r="D267" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="268" spans="4:9">
-      <c r="E268" t="s">
-        <v>309</v>
-      </c>
-      <c r="G268" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="I268" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="269" spans="4:9">
-      <c r="E269" t="s">
-        <v>309</v>
-      </c>
-      <c r="G269" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="I269" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="270" spans="4:9">
-      <c r="E270" t="s">
-        <v>309</v>
-      </c>
-      <c r="G270" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="I270" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="271" spans="4:9">
-      <c r="D271" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="272" spans="4:9">
-      <c r="E272" t="s">
-        <v>309</v>
-      </c>
-      <c r="G272" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="I272" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="273" spans="4:9">
-      <c r="E273" t="s">
-        <v>309</v>
-      </c>
-      <c r="G273" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="I273" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="274" spans="4:9">
@@ -4736,15 +4737,15 @@
         <v>309</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="I274" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="275" spans="4:9">
       <c r="D275" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="276" spans="4:9">
@@ -4752,10 +4753,10 @@
         <v>309</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="I276" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="277" spans="4:9">
@@ -4763,26 +4764,26 @@
         <v>309</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="I277" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="278" spans="4:9">
-      <c r="D278" t="s">
-        <v>213</v>
+      <c r="E278" t="s">
+        <v>309</v>
+      </c>
+      <c r="G278" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I278" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="279" spans="4:9">
-      <c r="E279" t="s">
-        <v>309</v>
-      </c>
-      <c r="G279" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="I279" t="s">
-        <v>428</v>
+      <c r="D279" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="280" spans="4:9">
@@ -4790,10 +4791,10 @@
         <v>309</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="I280" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="281" spans="4:9">
@@ -4801,10 +4802,10 @@
         <v>309</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="I281" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="282" spans="4:9">
@@ -4812,26 +4813,26 @@
         <v>309</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="I282" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="283" spans="4:9">
-      <c r="E283" t="s">
-        <v>309</v>
-      </c>
-      <c r="G283" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="I283" t="s">
-        <v>435</v>
+      <c r="D283" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="284" spans="4:9">
-      <c r="D284" t="s">
-        <v>214</v>
+      <c r="E284" t="s">
+        <v>309</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I284" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="285" spans="4:9">
@@ -4839,15 +4840,15 @@
         <v>309</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="I285" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
     </row>
     <row r="286" spans="4:9">
       <c r="D286" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="287" spans="4:9">
@@ -4855,15 +4856,21 @@
         <v>309</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="I287" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="288" spans="4:9">
-      <c r="D288" t="s">
-        <v>216</v>
+      <c r="E288" t="s">
+        <v>309</v>
+      </c>
+      <c r="G288" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I288" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="289" spans="2:9">
@@ -4871,15 +4878,21 @@
         <v>309</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="I289" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="290" spans="2:9">
-      <c r="D290" t="s">
-        <v>217</v>
+      <c r="E290" t="s">
+        <v>309</v>
+      </c>
+      <c r="G290" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="I290" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="291" spans="2:9">
@@ -4887,542 +4900,606 @@
         <v>309</v>
       </c>
       <c r="G291" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="I291" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9">
+      <c r="D292" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9">
+      <c r="E293" t="s">
+        <v>309</v>
+      </c>
+      <c r="G293" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="I293" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9">
+      <c r="D294" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9">
+      <c r="E295" t="s">
+        <v>309</v>
+      </c>
+      <c r="G295" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I295" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9">
+      <c r="D296" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="297" spans="2:9">
+      <c r="E297" t="s">
+        <v>309</v>
+      </c>
+      <c r="G297" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="I297" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9">
+      <c r="D298" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9">
+      <c r="E299" t="s">
+        <v>309</v>
+      </c>
+      <c r="G299" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="I291" t="s">
+      <c r="I299" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="292" spans="2:9">
-      <c r="D292" s="4" t="s">
+    <row r="300" spans="2:9">
+      <c r="D300" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="293" spans="2:9" ht="22.2">
-      <c r="B293" s="3" t="s">
+    <row r="301" spans="2:9" ht="22.2">
+      <c r="B301" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="294" spans="2:9" ht="22.2">
-      <c r="B294" s="3"/>
-      <c r="C294" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="295" spans="2:9" ht="22.2">
-      <c r="B295" s="3"/>
-      <c r="D295" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="296" spans="2:9" ht="22.2">
-      <c r="B296" s="3"/>
-      <c r="D296" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="297" spans="2:9" ht="22.2">
-      <c r="B297" s="3"/>
-      <c r="D297" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="298" spans="2:9" ht="22.2">
-      <c r="B298" s="3"/>
-      <c r="D298" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="299" spans="2:9">
-      <c r="D299" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="300" spans="2:9" ht="22.2">
-      <c r="B300" s="3"/>
-      <c r="C300" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="301" spans="2:9" ht="22.2">
-      <c r="B301" s="3"/>
-      <c r="D301" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="302" spans="2:9" ht="22.2">
       <c r="B302" s="3"/>
-      <c r="D302" t="s">
-        <v>226</v>
+      <c r="C302" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="303" spans="2:9" ht="22.2">
       <c r="B303" s="3"/>
       <c r="D303" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="304" spans="2:9" ht="22.2">
       <c r="B304" s="3"/>
       <c r="D304" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="305" spans="2:4" ht="22.2">
       <c r="B305" s="3"/>
       <c r="D305" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="306" spans="2:4" ht="22.2">
       <c r="B306" s="3"/>
-      <c r="C306" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="307" spans="2:4" ht="22.2">
-      <c r="B307" s="3"/>
-      <c r="D307" t="s">
-        <v>230</v>
+      <c r="D306" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4">
+      <c r="D307" s="4" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="308" spans="2:4" ht="22.2">
       <c r="B308" s="3"/>
-      <c r="D308" t="s">
-        <v>231</v>
+      <c r="C308" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="309" spans="2:4" ht="22.2">
       <c r="B309" s="3"/>
       <c r="D309" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="310" spans="2:4" ht="22.2">
       <c r="B310" s="3"/>
       <c r="D310" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="311" spans="2:4" ht="22.2">
       <c r="B311" s="3"/>
       <c r="D311" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="312" spans="2:4" ht="22.2">
       <c r="B312" s="3"/>
       <c r="D312" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="313" spans="2:4">
-      <c r="D313" s="4" t="s">
-        <v>303</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" ht="22.2">
+      <c r="B313" s="3"/>
+      <c r="D313" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="314" spans="2:4" ht="22.2">
-      <c r="B314" s="3" t="s">
-        <v>33</v>
+      <c r="B314" s="3"/>
+      <c r="C314" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="315" spans="2:4" ht="22.2">
       <c r="B315" s="3"/>
-      <c r="C315" s="2" t="s">
-        <v>236</v>
+      <c r="D315" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="316" spans="2:4" ht="22.2">
       <c r="B316" s="3"/>
       <c r="D316" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="317" spans="2:4" ht="22.2">
       <c r="B317" s="3"/>
       <c r="D317" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="318" spans="2:4" ht="22.2">
       <c r="B318" s="3"/>
       <c r="D318" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="319" spans="2:4" ht="22.2">
       <c r="B319" s="3"/>
       <c r="D319" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="320" spans="2:4">
-      <c r="D320" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="321" spans="2:4" ht="22.2">
-      <c r="B321" s="3"/>
-      <c r="C321" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" ht="22.2">
+      <c r="B320" s="3"/>
+      <c r="D320" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4">
+      <c r="D321" s="4" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="322" spans="2:4" ht="22.2">
-      <c r="B322" s="3"/>
-      <c r="D322" t="s">
-        <v>244</v>
+      <c r="B322" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="323" spans="2:4" ht="22.2">
       <c r="B323" s="3"/>
-      <c r="D323" t="s">
-        <v>245</v>
+      <c r="C323" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="324" spans="2:4" ht="22.2">
       <c r="B324" s="3"/>
       <c r="D324" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="325" spans="2:4" ht="22.2">
       <c r="B325" s="3"/>
       <c r="D325" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="326" spans="2:4" ht="22.2">
       <c r="B326" s="3"/>
       <c r="D326" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="327" spans="2:4" ht="22.2">
       <c r="B327" s="3"/>
       <c r="D327" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="328" spans="2:4" ht="22.2">
-      <c r="B328" s="3"/>
-      <c r="C328" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4">
+      <c r="D328" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="329" spans="2:4" ht="22.2">
       <c r="B329" s="3"/>
-      <c r="D329" t="s">
-        <v>250</v>
+      <c r="C329" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="330" spans="2:4" ht="22.2">
       <c r="B330" s="3"/>
       <c r="D330" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="331" spans="2:4" ht="22.2">
       <c r="B331" s="3"/>
       <c r="D331" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="332" spans="2:4" ht="22.2">
       <c r="B332" s="3"/>
       <c r="D332" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="333" spans="2:4" ht="22.2">
       <c r="B333" s="3"/>
       <c r="D333" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="334" spans="2:4" ht="22.2">
       <c r="B334" s="3"/>
       <c r="D334" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="335" spans="2:4" ht="22.2">
       <c r="B335" s="3"/>
       <c r="D335" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="336" spans="2:4" ht="22.2">
       <c r="B336" s="3"/>
-      <c r="D336" t="s">
-        <v>257</v>
+      <c r="C336" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="337" spans="2:4" ht="22.2">
       <c r="B337" s="3"/>
       <c r="D337" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="338" spans="2:4" ht="22.2">
       <c r="B338" s="3"/>
       <c r="D338" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="339" spans="2:4" ht="22.2">
       <c r="B339" s="3"/>
       <c r="D339" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="340" spans="2:4" ht="22.2">
       <c r="B340" s="3"/>
       <c r="D340" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="341" spans="2:4" ht="22.2">
       <c r="B341" s="3"/>
-      <c r="C341" s="2" t="s">
-        <v>239</v>
+      <c r="D341" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="342" spans="2:4" ht="22.2">
       <c r="B342" s="3"/>
       <c r="D342" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="343" spans="2:4" ht="22.2">
       <c r="B343" s="3"/>
       <c r="D343" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="344" spans="2:4" ht="22.2">
       <c r="B344" s="3"/>
       <c r="D344" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="345" spans="2:4" ht="22.2">
       <c r="B345" s="3"/>
       <c r="D345" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="346" spans="2:4">
-      <c r="D346" s="4" t="s">
-        <v>305</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" ht="22.2">
+      <c r="B346" s="3"/>
+      <c r="D346" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="347" spans="2:4" ht="22.2">
-      <c r="B347" s="3" t="s">
-        <v>34</v>
+      <c r="B347" s="3"/>
+      <c r="D347" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="348" spans="2:4" ht="22.2">
       <c r="B348" s="3"/>
-      <c r="C348" s="2" t="s">
-        <v>266</v>
+      <c r="D348" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="349" spans="2:4" ht="22.2">
       <c r="B349" s="3"/>
       <c r="C349" s="2" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="350" spans="2:4" ht="22.2">
       <c r="B350" s="3"/>
       <c r="D350" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="351" spans="2:4" ht="22.2">
       <c r="B351" s="3"/>
       <c r="D351" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="352" spans="2:4" ht="22.2">
       <c r="B352" s="3"/>
       <c r="D352" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="353" spans="2:4" ht="22.2">
       <c r="B353" s="3"/>
-      <c r="C353" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="354" spans="2:4" ht="22.2">
-      <c r="B354" s="3"/>
-      <c r="D354" t="s">
-        <v>274</v>
+      <c r="D353" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4">
+      <c r="D354" s="4" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="355" spans="2:4" ht="22.2">
-      <c r="B355" s="3"/>
-      <c r="D355" t="s">
-        <v>275</v>
+      <c r="B355" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="356" spans="2:4" ht="22.2">
       <c r="B356" s="3"/>
-      <c r="D356" t="s">
-        <v>276</v>
+      <c r="C356" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="357" spans="2:4" ht="22.2">
       <c r="B357" s="3"/>
-      <c r="D357" t="s">
-        <v>277</v>
+      <c r="C357" s="2" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="358" spans="2:4" ht="22.2">
       <c r="B358" s="3"/>
-      <c r="C358" s="2" t="s">
-        <v>269</v>
+      <c r="D358" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="359" spans="2:4" ht="22.2">
       <c r="B359" s="3"/>
       <c r="D359" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="360" spans="2:4" ht="22.2">
       <c r="B360" s="3"/>
       <c r="D360" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="361" spans="2:4" ht="22.2">
       <c r="B361" s="3"/>
-      <c r="D361" t="s">
-        <v>280</v>
+      <c r="C361" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="362" spans="2:4" ht="22.2">
       <c r="B362" s="3"/>
       <c r="D362" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="363" spans="2:4" ht="22.2">
       <c r="B363" s="3"/>
       <c r="D363" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="364" spans="2:4">
-      <c r="D364" s="4" t="s">
-        <v>306</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" ht="22.2">
+      <c r="B364" s="3"/>
+      <c r="D364" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="365" spans="2:4" ht="22.2">
       <c r="B365" s="3"/>
-      <c r="C365" s="2" t="s">
-        <v>270</v>
+      <c r="D365" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="366" spans="2:4" ht="22.2">
       <c r="B366" s="3"/>
-      <c r="D366" t="s">
-        <v>283</v>
+      <c r="C366" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="367" spans="2:4" ht="22.2">
       <c r="B367" s="3"/>
       <c r="D367" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="368" spans="2:4" ht="22.2">
       <c r="B368" s="3"/>
       <c r="D368" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" ht="22.2">
+      <c r="B369" s="3"/>
+      <c r="D369" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" ht="22.2">
+      <c r="B370" s="3"/>
+      <c r="D370" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" ht="22.2">
+      <c r="B371" s="3"/>
+      <c r="D371" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4">
+      <c r="D372" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" ht="22.2">
+      <c r="B373" s="3"/>
+      <c r="C373" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" ht="22.2">
+      <c r="B374" s="3"/>
+      <c r="D374" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" ht="22.2">
+      <c r="B375" s="3"/>
+      <c r="D375" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" ht="22.2">
+      <c r="B376" s="3"/>
+      <c r="D376" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="369" spans="2:4">
-      <c r="D369" s="4" t="s">
+    <row r="377" spans="2:4">
+      <c r="D377" s="4" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="370" spans="2:4" ht="22.2">
-      <c r="B370" s="3" t="s">
+    <row r="378" spans="2:4" ht="22.2">
+      <c r="B378" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="371" spans="2:4">
-      <c r="C371" s="2" t="s">
+    <row r="379" spans="2:4">
+      <c r="C379" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="372" spans="2:4">
-      <c r="D372" t="s">
+    <row r="380" spans="2:4">
+      <c r="D380" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="373" spans="2:4">
-      <c r="D373" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="374" spans="2:4">
-      <c r="D374" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="375" spans="2:4">
-      <c r="D375" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="376" spans="2:4">
-      <c r="D376" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="377" spans="2:4">
-      <c r="D377" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="378" spans="2:4">
-      <c r="D378" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="379" spans="2:4">
-      <c r="D379" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="380" spans="2:4">
-      <c r="C380" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="381" spans="2:4">
       <c r="D381" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="382" spans="2:4">
       <c r="D382" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="383" spans="2:4">
       <c r="D383" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4">
+      <c r="D384" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="385" spans="3:4">
+      <c r="D385" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="386" spans="3:4">
+      <c r="D386" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="387" spans="3:4">
+      <c r="D387" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="388" spans="3:4">
+      <c r="C388" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="389" spans="3:4">
+      <c r="D389" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="390" spans="3:4">
+      <c r="D390" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="391" spans="3:4">
+      <c r="D391" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="384" spans="2:4">
-      <c r="D384" s="4" t="s">
+    <row r="392" spans="3:4">
+      <c r="D392" s="4" t="s">
         <v>308</v>
       </c>
     </row>
